--- a/Best Results.xlsx
+++ b/Best Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Documents\GitHub\NOVAIMS_DS\1st Year\2nd Semester\Computational Intelligence for Optimization\Aulas\Week7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2305E2-BA80-4062-9F04-C3BF7A65DCAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCAB3073-CBA0-4C2A-AA9C-65B07ACFA9AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4061249F-84C0-4443-B974-2D94D9B55674}"/>
   </bookViews>
@@ -114,7 +114,7 @@
     <t>Time (s)</t>
   </si>
   <si>
-    <t>353.99</t>
+    <t>Size (Cities)</t>
   </si>
 </sst>
 </file>
@@ -501,12 +501,13 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -768,6 +769,9 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -775,18 +779,30 @@
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
+      <c r="B11">
+        <v>52</v>
+      </c>
+      <c r="C11">
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B12">
+        <v>734</v>
+      </c>
+      <c r="C12">
+        <v>7079</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="B13">
+        <v>16862</v>
       </c>
     </row>
   </sheetData>
